--- a/mysql/数据库增长量计算.xlsx
+++ b/mysql/数据库增长量计算.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24000" windowHeight="9495"/>
+    <workbookView windowWidth="24000" windowHeight="9765"/>
   </bookViews>
   <sheets>
     <sheet name="修改每秒新值" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>名称</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>备注</t>
+  </si>
+  <si>
+    <t>建议每500个节点使用一个proxy</t>
   </si>
   <si>
     <t>每秒新值</t>
@@ -76,9 +79,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -95,6 +98,30 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
@@ -109,8 +136,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -125,6 +161,51 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -138,44 +219,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -183,49 +227,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,49 +251,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -302,133 +431,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,22 +449,40 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,26 +502,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,25 +542,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -557,137 +560,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -697,6 +700,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1035,7 +1041,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -1055,7 +1061,7 @@
     <col min="13" max="13" width="18.625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1068,112 +1074,111 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="5">
+      <c r="A2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="6">
         <v>144.97</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="6">
+      <c r="A3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="7">
         <v>0.35</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="7">
+      <c r="A4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="8">
         <f>IF(C4="KB",B2/60*B3*1024,IF(C4="MB",B2/60*B3,IF(C4="GB",B2/60*B3/1024,IF(C4="TB",B2/60*B3/1024/1024))))</f>
         <v>865.954133333333</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>11</v>
+      <c r="C4" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="7">
+      <c r="A5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="8">
         <f>IF(C5="KB",(B2/60)*1440*B3*1024,IF(C5="MB",(B2/60)*1440*B3,IF(C5="GB",(B2/60)*1440*B3/1024,IF(C5="TB",(B2/60)*1440*B3/1024/1024))))</f>
         <v>1.18920703125</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>14</v>
+      <c r="C5" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="7">
+    <row r="6" spans="1:4">
+      <c r="A6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="8">
         <f>IF(C6="KB",(B2/60)*1440*30*B3*1024,IF(C6="MB",(B2/60)*1440*30*B3,IF(C6="GB",(B2/60)*1440*30*B3/1024,IF(C6="TB",(B2/60)*1440*30*B3/1024/1024))))</f>
         <v>35.6762109375</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>14</v>
+      <c r="C6" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="1">
-        <f>B6*7</f>
-        <v>249.7334765625</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="7">
+      <c r="A7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="8">
         <f>IF(C7="KB",(B2/60)*1440*30*3*B3*1024,IF(C7="MB",(B2/60)*1440*30*3*B3,IF(C7="GB",(B2/60)*1440*30*3*B3/1024,IF(C7="TB",(B2/60)*1440*30*3*B3/1024/1024))))</f>
         <v>107.0286328125</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>14</v>
+      <c r="C7" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="7">
+      <c r="A8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="8">
         <f>IF(C8="KB",(B2/60)*1440*30*3*4*B3*1024,IF(C8="MB",(B2/60)*1440*30*3*4*B3,IF(C8="GB",(B2/60)*1440*30*3*4*B3/1024,IF(C8="TB",(B2/60)*1440*30*3*4*B3/1024/1024))))</f>
         <v>428.11453125</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>14</v>
+      <c r="C8" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="4:4">

--- a/mysql/数据库增长量计算.xlsx
+++ b/mysql/数据库增长量计算.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>名称</t>
   </si>
@@ -28,6 +28,9 @@
     <t>备注</t>
   </si>
   <si>
+    <t>建议每500个节点使用一个proxy</t>
+  </si>
+  <si>
     <t>每秒新值</t>
   </si>
   <si>
@@ -58,13 +61,10 @@
     <t>每天增加存储量</t>
   </si>
   <si>
-    <t>MB</t>
+    <t>GB</t>
   </si>
   <si>
     <t>每月增加存储量</t>
-  </si>
-  <si>
-    <t>GB</t>
   </si>
   <si>
     <t>每季度增加存储量</t>
@@ -78,10 +78,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -98,39 +98,19 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -150,69 +130,82 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,17 +219,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,187 +251,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,11 +447,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -461,15 +459,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -489,26 +478,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,17 +517,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,10 +548,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -560,137 +560,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -700,6 +700,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1035,13 +1038,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D2:D8"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="17.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.375" style="1" customWidth="1"/>
@@ -1058,7 +1061,7 @@
     <col min="13" max="13" width="18.625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1071,108 +1074,111 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="5">
-        <v>60</v>
+      <c r="A2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="6">
+        <v>144.97</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="6">
-        <v>0.25</v>
+      <c r="A3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="7">
+        <v>0.35</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="7">
+      <c r="A4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="8">
         <f>IF(C4="KB",B2/60*B3*1024,IF(C4="MB",B2/60*B3,IF(C4="GB",B2/60*B3/1024,IF(C4="TB",B2/60*B3/1024/1024))))</f>
-        <v>256</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>11</v>
+        <v>865.954133333333</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="8">
+        <f>IF(C5="KB",(B2/60)*1440*B3*1024,IF(C5="MB",(B2/60)*1440*B3,IF(C5="GB",(B2/60)*1440*B3/1024,IF(C5="TB",(B2/60)*1440*B3/1024/1024))))</f>
+        <v>1.18920703125</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B5" s="7">
-        <f>IF(C5="KB",(B2/60)*1440*B3*1024,IF(C5="MB",(B2/60)*1440*B3,IF(C5="GB",(B2/60)*1440*B3/1024,IF(C5="TB",(B2/60)*1440*B3/1024/1024))))</f>
-        <v>360</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="8">
+        <f>IF(C6="KB",(B2/60)*1440*30*B3*1024,IF(C6="MB",(B2/60)*1440*30*B3,IF(C6="GB",(B2/60)*1440*30*B3/1024,IF(C6="TB",(B2/60)*1440*30*B3/1024/1024))))</f>
+        <v>35.6762109375</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="7">
-        <f>IF(C6="KB",(B2/60)*1440*30*B3*1024,IF(C6="MB",(B2/60)*1440*30*B3,IF(C6="GB",(B2/60)*1440*30*B3/1024,IF(C6="TB",(B2/60)*1440*30*B3/1024/1024))))</f>
-        <v>10.546875</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>16</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="8">
         <f>IF(C7="KB",(B2/60)*1440*30*3*B3*1024,IF(C7="MB",(B2/60)*1440*30*3*B3,IF(C7="GB",(B2/60)*1440*30*3*B3/1024,IF(C7="TB",(B2/60)*1440*30*3*B3/1024/1024))))</f>
-        <v>31.640625</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>16</v>
+        <v>107.0286328125</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="8">
         <f>IF(C8="KB",(B2/60)*1440*30*3*4*B3*1024,IF(C8="MB",(B2/60)*1440*30*3*4*B3,IF(C8="GB",(B2/60)*1440*30*3*4*B3/1024,IF(C8="TB",(B2/60)*1440*30*3*4*B3/1024/1024))))</f>
-        <v>126.5625</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>16</v>
+        <v>428.11453125</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="4:4">
